--- a/packages/app/public/templates/leiter.xlsx
+++ b/packages/app/public/templates/leiter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187777A4-D765-4306-A596-4D8707EF6380}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B00A7A-F4F8-48F4-9298-26446B617178}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Vorname</t>
   </si>
@@ -115,7 +115,115 @@
     <t>Nachname</t>
   </si>
   <si>
-    <t>Freizeitname</t>
+    <t>${table:anmeldungen.anmeldeID}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.nachname}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.vorname}</t>
+  </si>
+  <si>
+    <t>Anmelde-ID</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.adresse.strasse}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.adresse.plz}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.adresse.ort}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.telefon.telefon}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.gebDat.german}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.m}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.w}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.betreuer}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.empty}</t>
+  </si>
+  <si>
+    <t>vegetarisch</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Gesundheitsinformationen</t>
+  </si>
+  <si>
+    <t>Lebensmittelunverträglichkeiten</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.vegetarisch}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.bemerkungen}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.gesundheitsinformationen}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.lebensmittelAllergien}</t>
+  </si>
+  <si>
+    <t>radfahren</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>sichEntfernen</t>
+  </si>
+  <si>
+    <t>bootFahren</t>
+  </si>
+  <si>
+    <t>fahrgemeinschaften</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.radfahren}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.klettern}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.sichEntfernen}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.bootFahren}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.fahrgemeinschaften}</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.geschlecht}</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.schwimmen}</t>
+  </si>
+  <si>
+    <t>anmeldezeitpunkt</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.anmeldeZeitpunkt.german}</t>
   </si>
   <si>
     <r>
@@ -135,119 +243,20 @@
         <rFont val="Calibri Deluxe"/>
         <family val="2"/>
       </rPr>
-      <t>Freizeitleiter</t>
+      <t>????</t>
     </r>
   </si>
   <si>
-    <t>${table:anmeldungen.anmeldeID}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.nachname}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.vorname}</t>
-  </si>
-  <si>
-    <t>Anmelde-ID</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.adresse.strasse}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.adresse.plz}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.adresse.ort}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.telefon.telefon}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.gebDat.german}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.m}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.w}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.betreuer}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.empty}</t>
-  </si>
-  <si>
-    <t>vegetarisch</t>
-  </si>
-  <si>
-    <t>Bemerkungen</t>
-  </si>
-  <si>
-    <t>Gesundheitsinformationen</t>
-  </si>
-  <si>
-    <t>Lebensmittelunverträglichkeiten</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.vegetarisch}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.bemerkungen}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.gesundheitsinformationen}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.lebensmittelAllergien}</t>
-  </si>
-  <si>
-    <t>radfahren</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>sichEntfernen</t>
-  </si>
-  <si>
-    <t>bootFahren</t>
-  </si>
-  <si>
-    <t>fahrgemeinschaften</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.radfahren}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.klettern}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.sichEntfernen}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.bootFahren}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.fahrgemeinschaften}</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.geschlecht}</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.schwimmen}</t>
-  </si>
-  <si>
-    <t>anmeldezeitpunkt</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.anmeldeZeitpunkt.german}</t>
+    <t>${bezeichnung}</t>
+  </si>
+  <si>
+    <t>${begin.german}</t>
+  </si>
+  <si>
+    <t>${ende.german}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.older27}</t>
   </si>
 </sst>
 </file>
@@ -719,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -886,6 +895,7 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -962,56 +972,6 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>84913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1288983</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>124904</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8724901" y="84913"/>
-          <a:ext cx="2146232" cy="734237"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1344,10 +1304,10 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AA7" sqref="AA7:AC7"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1380,7 +1340,7 @@
     </row>
     <row r="2" spans="1:29" ht="27" customHeight="1">
       <c r="D2" s="49" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -1395,16 +1355,16 @@
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1">
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
-        <v>43288</v>
-      </c>
-      <c r="G3" s="6">
-        <v>43298</v>
+      <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -1430,7 +1390,7 @@
     </row>
     <row r="6" spans="1:29" s="26" customFormat="1" ht="61.5" thickTop="1" thickBot="1">
       <c r="A6" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>15</v>
@@ -1472,120 +1432,120 @@
         <v>8</v>
       </c>
       <c r="O6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="R6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="45" t="s">
-        <v>34</v>
-      </c>
       <c r="S6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="V6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="W6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="X6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Z6" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="Z6" s="26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" thickBot="1">
       <c r="A7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="H7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="J7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="K7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="N7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>30</v>
-      </c>
       <c r="O7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="R7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="46" t="s">
-        <v>38</v>
-      </c>
       <c r="S7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="47" t="s">
+      <c r="Y7" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="Y7" s="47" t="s">
+      <c r="Z7" s="47" t="s">
         <v>52</v>
-      </c>
-      <c r="Z7" s="47" t="s">
-        <v>54</v>
       </c>
       <c r="AA7" s="47"/>
       <c r="AB7" s="47"/>

--- a/packages/app/public/templates/leiter.xlsx
+++ b/packages/app/public/templates/leiter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\ec\ec-verwaltungs-app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B00A7A-F4F8-48F4-9298-26446B617178}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95298C30-B026-4A1F-8299-9D0ED71895E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,6 +226,18 @@
     <t>${table:anmeldungen.anmeldeZeitpunkt.german}</t>
   </si>
   <si>
+    <t>${bezeichnung}</t>
+  </si>
+  <si>
+    <t>${begin.german}</t>
+  </si>
+  <si>
+    <t>${ende.german}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.older27}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -243,20 +255,8 @@
         <rFont val="Calibri Deluxe"/>
         <family val="2"/>
       </rPr>
-      <t>????</t>
+      <t xml:space="preserve"> ${hauptleiter.person.vorname} ${hauptleiter.person.nachname}</t>
     </r>
-  </si>
-  <si>
-    <t>${bezeichnung}</t>
-  </si>
-  <si>
-    <t>${begin.german}</t>
-  </si>
-  <si>
-    <t>${ende.german}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.older27}</t>
   </si>
 </sst>
 </file>
@@ -860,6 +860,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -895,7 +896,6 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1304,10 +1304,10 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1327,52 +1327,52 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:29" ht="27" customHeight="1">
-      <c r="D2" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="D2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1">
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:29" ht="7.15" customHeight="1" thickBot="1">
       <c r="D4" s="2"/>
@@ -1500,7 +1500,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>28</v>
@@ -1541,7 +1541,7 @@
       <c r="X7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="59" t="s">
+      <c r="Y7" s="48" t="s">
         <v>50</v>
       </c>
       <c r="Z7" s="47" t="s">
@@ -1568,77 +1568,77 @@
       <c r="N8" s="37"/>
     </row>
     <row r="10" spans="1:29" ht="15">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:29" ht="15">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" spans="1:29" ht="15">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:29" ht="15">
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="42"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" spans="2:14" ht="15">
       <c r="B17" s="43"/>
       <c r="C17" s="28"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="20" spans="2:14" ht="14.45" customHeight="1">
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="58"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AL7">
